--- a/Excel/DouShouQiPieceConfig.xlsx
+++ b/Excel/DouShouQiPieceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="DouShouQiPieceConfig" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -34,6 +34,9 @@
     <t>显示名字</t>
   </si>
   <si>
+    <t>图片名字</t>
+  </si>
+  <si>
     <t>FoodIds</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>ShowName</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -55,25 +61,49 @@
     <t>1,2,3,4,5,6,7</t>
   </si>
   <si>
+    <t>elephant1</t>
+  </si>
+  <si>
     <t>2,3,4,5,6,7,8</t>
   </si>
   <si>
+    <t>lion1</t>
+  </si>
+  <si>
     <t>3,4,5,6,7,8</t>
   </si>
   <si>
+    <t>tiger1</t>
+  </si>
+  <si>
     <t>4,5,6,7,8</t>
   </si>
   <si>
+    <t>leopard1</t>
+  </si>
+  <si>
     <t>5,6,7,8,</t>
   </si>
   <si>
+    <t>wolf1</t>
+  </si>
+  <si>
     <t>6,7,8</t>
   </si>
   <si>
+    <t>dog1</t>
+  </si>
+  <si>
     <t>7,8,</t>
   </si>
   <si>
+    <t>cat1</t>
+  </si>
+  <si>
     <t>8,1</t>
+  </si>
+  <si>
+    <t>mouse1</t>
   </si>
 </sst>
 </file>
@@ -86,7 +116,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,43 +133,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,34 +213,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,11 +245,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,46 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +291,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,17 +485,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,11 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +533,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,8 +547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,13 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,148 +587,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -714,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,13 +1254,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:F13"/>
+  <dimension ref="C2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
@@ -1249,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="3:6">
+    <row r="3" ht="14.25" spans="3:7">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1262,41 +1285,50 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="3:6">
+    <row r="4" ht="14.25" spans="3:7">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="3:6">
+    <row r="5" ht="14.25" spans="3:7">
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:7">
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
         <v>9</v>
@@ -1305,13 +1337,16 @@
         <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(E6,[1]LanguageZHCNConfig!C:C,0))</f>
         <v>象</v>
       </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:7">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
@@ -1320,13 +1355,16 @@
         <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(E7,[1]LanguageZHCNConfig!C:C,0))</f>
         <v>狮</v>
       </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:7">
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
@@ -1335,13 +1373,16 @@
         <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(E8,[1]LanguageZHCNConfig!C:C,0))</f>
         <v>虎</v>
       </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:7">
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2">
         <v>12</v>
@@ -1350,13 +1391,16 @@
         <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(E9,[1]LanguageZHCNConfig!C:C,0))</f>
         <v>豹</v>
       </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:7">
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
@@ -1365,13 +1409,16 @@
         <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(E10,[1]LanguageZHCNConfig!C:C,0))</f>
         <v>狼</v>
       </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:7">
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
@@ -1380,13 +1427,16 @@
         <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(E11,[1]LanguageZHCNConfig!C:C,0))</f>
         <v>狗</v>
       </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:7">
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2">
         <v>15</v>
@@ -1395,13 +1445,16 @@
         <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(E12,[1]LanguageZHCNConfig!C:C,0))</f>
         <v>猫</v>
       </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:7">
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2">
         <v>16</v>
@@ -1409,6 +1462,9 @@
       <c r="F13" t="str">
         <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(E13,[1]LanguageZHCNConfig!C:C,0))</f>
         <v>鼠</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
